--- a/Airbnb_Detalle_Columnas.xlsx
+++ b/Airbnb_Detalle_Columnas.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victormontaluisa/Desktop/LOCAL CAPACITACION 2024/LOCAL KEEPCODING IA/ENTREGA PRACTICAS/003ML/Practica_final_ml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB4ABCE-0024-104E-B17F-5B9E8B89DACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6D5572-8AE3-D54B-A146-A97A37071B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="1700" windowWidth="43620" windowHeight="25360" xr2:uid="{7DA8E8BA-C849-C342-8CC7-23B7C12ADE50}"/>
+    <workbookView xWindow="320" yWindow="1700" windowWidth="41420" windowHeight="24580" xr2:uid="{7DA8E8BA-C849-C342-8CC7-23B7C12ADE50}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$J$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$J$203</definedName>
     <definedName name="Airbnb_Columns_and_Descriptions" localSheetId="0">Hoja2!$B$1:$D$90</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="394">
   <si>
     <t>Column Name</t>
   </si>
@@ -952,6 +952,288 @@
   </si>
   <si>
     <t>p_Review_Scores_Value</t>
+  </si>
+  <si>
+    <t>p_cocina</t>
+  </si>
+  <si>
+    <t>p_Review_Scores_Rating_Encoded</t>
+  </si>
+  <si>
+    <t>p_Review_Scores_Accuracy_Encoded</t>
+  </si>
+  <si>
+    <t>p_Review_Scores_Cleanliness_Encoded</t>
+  </si>
+  <si>
+    <t>p_Review_Scores_Checkin_Encoded</t>
+  </si>
+  <si>
+    <t>p_Review_Scores_Communication_Encoded</t>
+  </si>
+  <si>
+    <t>p_Review_Scores_Location_Encoded</t>
+  </si>
+  <si>
+    <t>p_Review_Scores_Value_Encoded</t>
+  </si>
+  <si>
+    <t>p_Host_ID_Encoded</t>
+  </si>
+  <si>
+    <t>p_Amenities_24-HOUR CHECK-IN</t>
+  </si>
+  <si>
+    <t>p_Amenities_AIR CONDITIONING</t>
+  </si>
+  <si>
+    <t>p_Amenities_BABY BATH</t>
+  </si>
+  <si>
+    <t>p_Amenities_BABYSITTER RECOMMENDATIONS</t>
+  </si>
+  <si>
+    <t>p_Amenities_BATHTUB</t>
+  </si>
+  <si>
+    <t>p_Amenities_BBQ GRILL</t>
+  </si>
+  <si>
+    <t>p_Amenities_BED LINENS</t>
+  </si>
+  <si>
+    <t>p_Amenities_BREAKFAST</t>
+  </si>
+  <si>
+    <t>p_Amenities_BUZZER/WIRELESS INTERCOM</t>
+  </si>
+  <si>
+    <t>p_Amenities_CABLE TV</t>
+  </si>
+  <si>
+    <t>p_Amenities_CARBON MONOXIDE DETECTOR</t>
+  </si>
+  <si>
+    <t>p_Amenities_CAT(S)</t>
+  </si>
+  <si>
+    <t>p_Amenities_CHANGING TABLE</t>
+  </si>
+  <si>
+    <t>p_Amenities_CHILDREN’S BOOKS AND TOYS</t>
+  </si>
+  <si>
+    <t>p_Amenities_CHILDREN’S DINNERWARE</t>
+  </si>
+  <si>
+    <t>p_Amenities_COFFEE MAKER</t>
+  </si>
+  <si>
+    <t>p_Amenities_COOKING BASICS</t>
+  </si>
+  <si>
+    <t>p_Amenities_CRIB</t>
+  </si>
+  <si>
+    <t>p_Amenities_DISHES AND SILVERWARE</t>
+  </si>
+  <si>
+    <t>p_Amenities_DISHWASHER</t>
+  </si>
+  <si>
+    <t>p_Amenities_DOG(S)</t>
+  </si>
+  <si>
+    <t>p_Amenities_DOORMAN</t>
+  </si>
+  <si>
+    <t>p_Amenities_DOORMAN ENTRY</t>
+  </si>
+  <si>
+    <t>p_Amenities_DRYER</t>
+  </si>
+  <si>
+    <t>p_Amenities_ELEVATOR IN BUILDING</t>
+  </si>
+  <si>
+    <t>p_Amenities_ESSENTIALS</t>
+  </si>
+  <si>
+    <t>p_Amenities_EV CHARGER</t>
+  </si>
+  <si>
+    <t>p_Amenities_EXTRA PILLOWS AND BLANKETS</t>
+  </si>
+  <si>
+    <t>p_Amenities_FAMILY/KID FRIENDLY</t>
+  </si>
+  <si>
+    <t>p_Amenities_FIRE EXTINGUISHER</t>
+  </si>
+  <si>
+    <t>p_Amenities_FIREPLACE GUARDS</t>
+  </si>
+  <si>
+    <t>p_Amenities_FIRST AID KIT</t>
+  </si>
+  <si>
+    <t>p_Amenities_FREE PARKING ON PREMISES</t>
+  </si>
+  <si>
+    <t>p_Amenities_FREE PARKING ON STREET</t>
+  </si>
+  <si>
+    <t>p_Amenities_GAME CONSOLE</t>
+  </si>
+  <si>
+    <t>p_Amenities_GARDEN OR BACKYARD</t>
+  </si>
+  <si>
+    <t>p_Amenities_GYM</t>
+  </si>
+  <si>
+    <t>p_Amenities_HAIR DRYER</t>
+  </si>
+  <si>
+    <t>p_Amenities_HANGERS</t>
+  </si>
+  <si>
+    <t>p_Amenities_HEATING</t>
+  </si>
+  <si>
+    <t>p_Amenities_HIGH CHAIR</t>
+  </si>
+  <si>
+    <t>p_Amenities_HOT TUB</t>
+  </si>
+  <si>
+    <t>p_Amenities_HOT WATER</t>
+  </si>
+  <si>
+    <t>p_Amenities_INDOOR FIREPLACE</t>
+  </si>
+  <si>
+    <t>p_Amenities_INTERNET</t>
+  </si>
+  <si>
+    <t>p_Amenities_IRON</t>
+  </si>
+  <si>
+    <t>p_Amenities_KEYPAD</t>
+  </si>
+  <si>
+    <t>p_Amenities_KITCHEN</t>
+  </si>
+  <si>
+    <t>p_Amenities_LAPTOP FRIENDLY WORKSPACE</t>
+  </si>
+  <si>
+    <t>p_Amenities_LOCK ON BEDROOM DOOR</t>
+  </si>
+  <si>
+    <t>p_Amenities_LOCKBOX</t>
+  </si>
+  <si>
+    <t>p_Amenities_LONG TERM STAYS ALLOWED</t>
+  </si>
+  <si>
+    <t>p_Amenities_LUGGAGE DROPOFF ALLOWED</t>
+  </si>
+  <si>
+    <t>p_Amenities_MICROWAVE</t>
+  </si>
+  <si>
+    <t>p_Amenities_OTHER PET(S)</t>
+  </si>
+  <si>
+    <t>p_Amenities_OUTLET COVERS</t>
+  </si>
+  <si>
+    <t>p_Amenities_OVEN</t>
+  </si>
+  <si>
+    <t>p_Amenities_PACK ’N PLAY/TRAVEL CRIB</t>
+  </si>
+  <si>
+    <t>p_Amenities_PAID PARKING OFF PREMISES</t>
+  </si>
+  <si>
+    <t>p_Amenities_PATH TO ENTRANCE LIT AT NIGHT</t>
+  </si>
+  <si>
+    <t>p_Amenities_PATIO OR BALCONY</t>
+  </si>
+  <si>
+    <t>p_Amenities_PETS ALLOWED</t>
+  </si>
+  <si>
+    <t>p_Amenities_PETS LIVE ON THIS PROPERTY</t>
+  </si>
+  <si>
+    <t>p_Amenities_POOL</t>
+  </si>
+  <si>
+    <t>p_Amenities_PRIVATE ENTRANCE</t>
+  </si>
+  <si>
+    <t>p_Amenities_PRIVATE LIVING ROOM</t>
+  </si>
+  <si>
+    <t>p_Amenities_REFRIGERATOR</t>
+  </si>
+  <si>
+    <t>p_Amenities_ROOM-DARKENING SHADES</t>
+  </si>
+  <si>
+    <t>p_Amenities_SAFETY CARD</t>
+  </si>
+  <si>
+    <t>p_Amenities_SELF CHECK-IN</t>
+  </si>
+  <si>
+    <t>p_Amenities_SHAMPOO</t>
+  </si>
+  <si>
+    <t>p_Amenities_SMARTLOCK</t>
+  </si>
+  <si>
+    <t>p_Amenities_SMOKE DETECTOR</t>
+  </si>
+  <si>
+    <t>p_Amenities_SMOKING ALLOWED</t>
+  </si>
+  <si>
+    <t>p_Amenities_STAIR GATES</t>
+  </si>
+  <si>
+    <t>p_Amenities_SUITABLE FOR EVENTS</t>
+  </si>
+  <si>
+    <t>p_Amenities_TABLE CORNER GUARDS</t>
+  </si>
+  <si>
+    <t>p_Amenities_TRANSLATION MISSING: EN.HOSTING_AMENITY_49</t>
+  </si>
+  <si>
+    <t>p_Amenities_TRANSLATION MISSING: EN.HOSTING_AMENITY_50</t>
+  </si>
+  <si>
+    <t>p_Amenities_TV</t>
+  </si>
+  <si>
+    <t>p_Amenities_WASHER</t>
+  </si>
+  <si>
+    <t>p_Amenities_WASHER / DRYER</t>
+  </si>
+  <si>
+    <t>p_Amenities_WHEELCHAIR ACCESSIBLE</t>
+  </si>
+  <si>
+    <t>p_Amenities_WINDOW GUARDS</t>
+  </si>
+  <si>
+    <t>p_Amenities_WIRELESS INTERNET</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1070,6 +1352,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1388,12 +1678,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171A5067-A621-2544-86B9-80B500E45B8C}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J110"/>
+  <dimension ref="A1:J203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="229" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H101" sqref="H101"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1454,7 +1743,7 @@
         <v>173</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>178</v>
@@ -1480,7 +1769,7 @@
         <v>173</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>178</v>
@@ -1489,7 +1778,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1507,10 +1796,12 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1528,7 +1819,9 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1856,7 +2149,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1874,13 +2167,15 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1898,13 +2193,15 @@
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1922,13 +2219,15 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1946,7 +2245,9 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="3" t="s">
         <v>189</v>
@@ -1969,7 +2270,7 @@
         <v>173</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>178</v>
@@ -1978,7 +2279,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1996,13 +2297,15 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2020,7 +2323,9 @@
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -2043,7 +2348,7 @@
         <v>175</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>173</v>
@@ -2052,7 +2357,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2070,7 +2375,9 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="H25" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -2158,7 +2465,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2176,13 +2483,15 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2200,13 +2509,15 @@
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="H30" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="I30" s="1"/>
       <c r="J30" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2224,13 +2535,15 @@
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="H31" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2248,7 +2561,9 @@
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="3" t="s">
         <v>177</v>
@@ -2352,7 +2667,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2370,7 +2685,9 @@
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="H37" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -2442,7 +2759,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2460,7 +2777,9 @@
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="H41" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -2558,7 +2877,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2574,7 +2893,9 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="H46" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="I46" s="1"/>
       <c r="J46" s="3" t="s">
         <v>181</v>
@@ -2872,7 +3193,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -2888,13 +3209,15 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
+      <c r="H58" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="I58" s="1"/>
       <c r="J58" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -2910,13 +3233,15 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
+      <c r="H59" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="I59" s="1"/>
       <c r="J59" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -2932,7 +3257,9 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
+      <c r="H60" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="I60" s="1"/>
       <c r="J60" s="3" t="s">
         <v>200</v>
@@ -3240,7 +3567,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -3258,7 +3585,9 @@
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
+      <c r="H73" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -3290,7 +3619,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -3308,7 +3637,9 @@
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
+      <c r="H75" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -3359,6 +3690,9 @@
       <c r="G77" s="2" t="s">
         <v>175</v>
       </c>
+      <c r="H77" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J77" s="3" t="s">
         <v>204</v>
       </c>
@@ -3382,6 +3716,9 @@
       <c r="G78" s="2" t="s">
         <v>175</v>
       </c>
+      <c r="H78" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J78" s="3" t="s">
         <v>204</v>
       </c>
@@ -3405,6 +3742,9 @@
       <c r="G79" s="2" t="s">
         <v>175</v>
       </c>
+      <c r="H79" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J79" s="3" t="s">
         <v>204</v>
       </c>
@@ -3428,6 +3768,9 @@
       <c r="G80" s="2" t="s">
         <v>175</v>
       </c>
+      <c r="H80" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J80" s="3" t="s">
         <v>204</v>
       </c>
@@ -3451,6 +3794,9 @@
       <c r="G81" s="2" t="s">
         <v>175</v>
       </c>
+      <c r="H81" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J81" s="3" t="s">
         <v>204</v>
       </c>
@@ -3474,6 +3820,9 @@
       <c r="G82" s="2" t="s">
         <v>175</v>
       </c>
+      <c r="H82" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J82" s="3" t="s">
         <v>204</v>
       </c>
@@ -3497,6 +3846,9 @@
       <c r="G83" s="2" t="s">
         <v>175</v>
       </c>
+      <c r="H83" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J83" s="3" t="s">
         <v>204</v>
       </c>
@@ -3530,7 +3882,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -3548,7 +3900,9 @@
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
+      <c r="H85" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="I85" s="1"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
@@ -3577,7 +3931,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -3595,7 +3949,9 @@
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
+      <c r="H87" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="I87" s="1"/>
       <c r="J87" s="3" t="s">
         <v>183</v>
@@ -3630,7 +3986,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -3648,7 +4004,9 @@
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
+      <c r="H89" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="I89" s="1"/>
       <c r="J89" s="3" t="s">
         <v>185</v>
@@ -3683,12 +4041,26 @@
         <v>292</v>
       </c>
     </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C91" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>175</v>
@@ -3702,7 +4074,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>175</v>
@@ -3716,7 +4088,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>175</v>
@@ -3753,162 +4125,1231 @@
         <v>173</v>
       </c>
     </row>
-    <row r="97" spans="3:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="C97" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="C98" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="H97" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="98" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C98" s="1" t="s">
+      <c r="H98" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C99" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="H98" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="I98" s="2" t="s">
+      <c r="H99" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I99" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="99" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C99" s="1" t="s">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C100" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G99" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="100" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C100" s="1" t="s">
+      <c r="G100" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C101" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="G100" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="101" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C101" s="1" t="s">
+      <c r="G101" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C102" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="G101" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="102" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C102" s="1" t="s">
+      <c r="G102" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C103" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G102" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="103" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C103" s="1" t="s">
+      <c r="G103" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C104" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="G103" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="104" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C104" s="1" t="s">
+      <c r="G104" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="11"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="G104" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="105" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C105" s="1" t="s">
+      <c r="D105" s="13"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H105" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="I105" s="11"/>
+      <c r="J105" s="9"/>
+    </row>
+    <row r="106" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="11"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="G105" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="106" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="13"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H106" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="I106" s="11"/>
+      <c r="J106" s="9"/>
+    </row>
+    <row r="107" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="11"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="G106" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="107" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C107" s="1" t="s">
+      <c r="D107" s="13"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H107" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="I107" s="11"/>
+      <c r="J107" s="9"/>
+    </row>
+    <row r="108" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="11"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="G107" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="108" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C108" s="1" t="s">
+      <c r="D108" s="13"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H108" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="I108" s="11"/>
+      <c r="J108" s="9"/>
+    </row>
+    <row r="109" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="11"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="G108" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="109" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C109" s="1" t="s">
+      <c r="D109" s="13"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H109" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="I109" s="11"/>
+      <c r="J109" s="9"/>
+    </row>
+    <row r="110" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="11"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="G109" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="110" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="13"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H110" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="I110" s="11"/>
+      <c r="J110" s="9"/>
+    </row>
+    <row r="111" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="11"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="12" t="s">
         <v>299</v>
       </c>
+      <c r="D111" s="13"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H111" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="I111" s="11"/>
+      <c r="J111" s="9"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C112" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="113" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C113" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="114" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C114" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C115" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="116" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C116" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="117" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C117" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="118" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C118" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="119" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C119" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="120" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C120" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="121" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C121" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="122" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C122" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="123" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C123" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="124" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C124" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="125" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C125" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="126" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C126" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="127" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C127" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="128" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C128" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="129" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C129" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="130" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C130" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="131" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C131" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="132" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C132" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="133" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C133" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="134" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C134" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="135" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C135" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="136" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C136" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="137" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C137" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="138" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C138" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="139" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C139" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="140" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C140" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="141" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C141" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="142" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C142" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="143" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C143" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="144" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C144" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="145" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C145" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="146" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C146" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="147" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C147" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="148" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C148" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="149" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C149" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="150" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C150" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="151" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C151" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="152" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C152" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="153" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C153" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="154" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C154" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="155" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C155" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="156" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C156" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="157" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C157" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="158" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C158" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="159" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C159" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="160" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C160" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="161" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C161" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="162" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C162" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="163" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C163" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="164" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C164" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="165" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C165" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="166" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C166" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="167" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C167" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="168" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C168" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="169" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C169" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="170" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C170" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="171" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C171" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="172" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C172" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="173" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C173" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="174" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C174" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C175" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C176" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="177" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C177" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="178" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C178" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="179" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C179" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="180" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C180" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="181" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C181" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="182" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C182" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="183" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C183" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="184" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C184" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="185" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C185" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="186" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C186" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="187" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C187" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="188" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C188" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="189" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C189" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="190" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C190" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="191" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C191" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H191" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="192" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C192" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="193" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C193" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="194" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C194" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="195" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C195" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="196" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C196" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="197" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C197" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="198" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C198" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H198" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="199" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C199" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="200" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C200" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="201" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C201" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="202" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C202" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="203" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C203" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H203" s="2" t="s">
+        <v>173</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J90" xr:uid="{171A5067-A621-2544-86B9-80B500E45B8C}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="S"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>